--- a/HLS_man/COP28/COP28_man_jamaica.xlsx
+++ b/HLS_man/COP28/COP28_man_jamaica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4354EC-61C4-472B-B382-E97ED3B54D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E1B34C-AA17-4826-9300-83BCB781DA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-16200" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
   <si>
     <t>COP28_jamaica</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -265,25 +259,9 @@
 Thank you.</t>
   </si>
   <si>
-    <t xml:space="preserve">
- </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>fossil fuels, cooperation</t>
-  </si>
-  <si>
     <t>technological resources</t>
   </si>
   <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
@@ -293,37 +271,19 @@
     <t xml:space="preserve">Prescribing the need to enable the transfer of technology to developing countries, in the benefit of the worst off. </t>
   </si>
   <si>
-    <t>support, adaptation</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>multilateral(SIDS)</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
     <t xml:space="preserve">Prescribing the need for increased support to the most vulnerable as the disproportionate burden is set on these islands. </t>
   </si>
   <si>
-    <t>financing</t>
-  </si>
-  <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prescribing the need to discuss the needs of the worst off, ultimately prioritarian. </t>
-  </si>
-  <si>
-    <t>loss and damage, moral responsibility</t>
-  </si>
-  <si>
-    <t>financial resorueces</t>
   </si>
   <si>
     <t xml:space="preserve">Moral obligation to adress the loss and damage fund for the benfit of the worst off. </t>
@@ -335,40 +295,13 @@
 countries to receive well needed assistance immediately.</t>
   </si>
   <si>
-    <t>emergency compensatin, new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prescripion of the moral value of providing help to the worst off. </t>
   </si>
   <si>
-    <t>moral responsibility, UNFCCC agreements and policies, adaptation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescription of the moral obligation to provide sufficient resoruces, ultimately for the redistribution to worst off. </t>
-  </si>
-  <si>
     <t>new UNFCCC policies</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>sectors</t>
-  </si>
-  <si>
-    <t>Prescription of the need for policies that account for all sectors.</t>
-  </si>
-  <si>
-    <t>new UNFCCC policies, education, oceans, climate change impacts</t>
-  </si>
-  <si>
     <t>general normative statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prescribing the need to take oceans and education into account. </t>
   </si>
   <si>
     <t>We are scaling up our climate action plans, promoting community -based 
@@ -378,16 +311,49 @@
 environmental stewardship.</t>
   </si>
   <si>
-    <t>innovation, mitigation, adaptation, moral responsibility</t>
-  </si>
-  <si>
     <t xml:space="preserve">Moral obligation to take on action, focussing on the need for collective action. </t>
   </si>
   <si>
-    <t>new UNFCCC policy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prescribes the need to behave as equals to a common goal. </t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t>adaptation</t>
+  </si>
+  <si>
+    <t>needs based</t>
+  </si>
+  <si>
+    <t>financial mechanisms</t>
+  </si>
+  <si>
+    <t>prioportional to commitments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription of the moral obligation to provide sufficient resoruces no specific motivation highlighted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription of the need for policies that account for all sectors, motivated by the idea that climate considerations should be acted on by all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the need to take oceans and education into account, no specific motivation or distribution presented. </t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>climate impact</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
   </si>
 </sst>
 </file>
@@ -757,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +734,7 @@
     <col min="1" max="1" width="53.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -782,548 +748,510 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="E22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
         <v>57</v>
       </c>
-      <c r="H22" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>65</v>
       </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>82</v>
-      </c>
-      <c r="H31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>50</v>
+      <c r="B44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
